--- a/src/data/Afwezigheidsassistent.xlsx
+++ b/src/data/Afwezigheidsassistent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Github Be-Value\hockey-schema\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8599B93-5DFB-42F5-B7EF-AE613006C828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6EFD0F-6902-4D0E-A479-357BFEF23B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13942" yWindow="7436" windowWidth="25134" windowHeight="13379" xr2:uid="{2002D22E-0CB5-4319-93C3-03DDBB8F7CC1}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="33749" windowHeight="18471" xr2:uid="{2002D22E-0CB5-4319-93C3-03DDBB8F7CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Marinus Wiebe</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Sander</t>
-  </si>
-  <si>
-    <t>Brent</t>
   </si>
   <si>
     <t>Enzo</t>
@@ -97,13 +94,28 @@
   <si>
     <t>Keeper</t>
   </si>
+  <si>
+    <t>spelen</t>
+  </si>
+  <si>
+    <t>chauffeuren</t>
+  </si>
+  <si>
+    <t>kan niet</t>
+  </si>
+  <si>
+    <t>bardienst</t>
+  </si>
+  <si>
+    <t>ingedeeld</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$]d\ mmm;@" x16r2:formatCode16="[$-en-NL,1]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$]d\ mmm;@" x16r2:formatCode16="[$-en-NL,1]d\ mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,18 +159,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,21 +193,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +223,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,191 +551,1063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C340C55E-125A-467D-A016-C49ADBA2A6B7}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:GA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="11" width="8.77734375" customWidth="1"/>
+    <col min="2" max="21" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="5">
+    <row r="1" spans="1:183" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="B2" s="10">
         <v>43897</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>43904</v>
       </c>
-      <c r="D1" s="5">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>43911</v>
       </c>
-      <c r="E1" s="5">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>43918</v>
       </c>
-      <c r="F1" s="5">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>43925</v>
       </c>
-      <c r="G1" s="5">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
         <v>43939</v>
       </c>
-      <c r="H1" s="5">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
         <v>43960</v>
       </c>
-      <c r="I1" s="5">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10">
         <v>43967</v>
       </c>
-      <c r="J1" s="5">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>43988</v>
       </c>
-      <c r="K1" s="5">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10">
         <v>43995</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3">
-        <f>SUM(B2:K2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
+      <c r="EK3"/>
+      <c r="EL3"/>
+      <c r="EM3"/>
+      <c r="EN3"/>
+      <c r="EO3"/>
+      <c r="EP3"/>
+      <c r="EQ3"/>
+      <c r="ER3"/>
+      <c r="ES3"/>
+      <c r="ET3"/>
+      <c r="EU3"/>
+      <c r="EV3"/>
+      <c r="EW3"/>
+      <c r="EX3"/>
+      <c r="EY3"/>
+      <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
+      <c r="FC3"/>
+      <c r="FD3"/>
+      <c r="FE3"/>
+      <c r="FF3"/>
+      <c r="FG3"/>
+      <c r="FH3"/>
+      <c r="FI3"/>
+      <c r="FJ3"/>
+      <c r="FK3"/>
+      <c r="FL3"/>
+      <c r="FM3"/>
+      <c r="FN3"/>
+      <c r="FO3"/>
+      <c r="FP3"/>
+      <c r="FQ3"/>
+      <c r="FR3"/>
+      <c r="FS3"/>
+      <c r="FT3"/>
+      <c r="FU3"/>
+      <c r="FV3"/>
+      <c r="FW3"/>
+      <c r="FX3"/>
+      <c r="FY3"/>
+      <c r="FZ3"/>
+      <c r="GA3"/>
+    </row>
+    <row r="4" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L18" si="0">SUM(B3:K3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="0"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
+      <c r="BK4"/>
+      <c r="BL4"/>
+      <c r="BM4"/>
+      <c r="BN4"/>
+      <c r="BO4"/>
+      <c r="BP4"/>
+      <c r="BQ4"/>
+      <c r="BR4"/>
+      <c r="BS4"/>
+      <c r="BT4"/>
+      <c r="BU4"/>
+      <c r="BV4"/>
+      <c r="BW4"/>
+      <c r="BX4"/>
+      <c r="BY4"/>
+      <c r="BZ4"/>
+      <c r="CA4"/>
+      <c r="CB4"/>
+      <c r="CC4"/>
+      <c r="CD4"/>
+      <c r="CE4"/>
+      <c r="CF4"/>
+      <c r="CG4"/>
+      <c r="CH4"/>
+      <c r="CI4"/>
+      <c r="CJ4"/>
+      <c r="CK4"/>
+      <c r="CL4"/>
+      <c r="CM4"/>
+      <c r="CN4"/>
+      <c r="CO4"/>
+      <c r="CP4"/>
+      <c r="CQ4"/>
+      <c r="CR4"/>
+      <c r="CS4"/>
+      <c r="CT4"/>
+      <c r="CU4"/>
+      <c r="CV4"/>
+      <c r="CW4"/>
+      <c r="CX4"/>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+      <c r="DP4"/>
+      <c r="DQ4"/>
+      <c r="DR4"/>
+      <c r="DS4"/>
+      <c r="DT4"/>
+      <c r="DU4"/>
+      <c r="DV4"/>
+      <c r="DW4"/>
+      <c r="DX4"/>
+      <c r="DY4"/>
+      <c r="DZ4"/>
+      <c r="EA4"/>
+      <c r="EB4"/>
+      <c r="EC4"/>
+      <c r="ED4"/>
+      <c r="EE4"/>
+      <c r="EF4"/>
+      <c r="EG4"/>
+      <c r="EH4"/>
+      <c r="EI4"/>
+      <c r="EJ4"/>
+      <c r="EK4"/>
+      <c r="EL4"/>
+      <c r="EM4"/>
+      <c r="EN4"/>
+      <c r="EO4"/>
+      <c r="EP4"/>
+      <c r="EQ4"/>
+      <c r="ER4"/>
+      <c r="ES4"/>
+      <c r="ET4"/>
+      <c r="EU4"/>
+      <c r="EV4"/>
+      <c r="EW4"/>
+      <c r="EX4"/>
+      <c r="EY4"/>
+      <c r="EZ4"/>
+      <c r="FA4"/>
+      <c r="FB4"/>
+      <c r="FC4"/>
+      <c r="FD4"/>
+      <c r="FE4"/>
+      <c r="FF4"/>
+      <c r="FG4"/>
+      <c r="FH4"/>
+      <c r="FI4"/>
+      <c r="FJ4"/>
+      <c r="FK4"/>
+      <c r="FL4"/>
+      <c r="FM4"/>
+      <c r="FN4"/>
+      <c r="FO4"/>
+      <c r="FP4"/>
+      <c r="FQ4"/>
+      <c r="FR4"/>
+      <c r="FS4"/>
+      <c r="FT4"/>
+      <c r="FU4"/>
+      <c r="FV4"/>
+      <c r="FW4"/>
+      <c r="FX4"/>
+      <c r="FY4"/>
+      <c r="FZ4"/>
+      <c r="GA4"/>
+    </row>
+    <row r="5" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
+      <c r="BL5"/>
+      <c r="BM5"/>
+      <c r="BN5"/>
+      <c r="BO5"/>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
+      <c r="BT5"/>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
+      <c r="BX5"/>
+      <c r="BY5"/>
+      <c r="BZ5"/>
+      <c r="CA5"/>
+      <c r="CB5"/>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
+      <c r="CM5"/>
+      <c r="CN5"/>
+      <c r="CO5"/>
+      <c r="CP5"/>
+      <c r="CQ5"/>
+      <c r="CR5"/>
+      <c r="CS5"/>
+      <c r="CT5"/>
+      <c r="CU5"/>
+      <c r="CV5"/>
+      <c r="CW5"/>
+      <c r="CX5"/>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+      <c r="DP5"/>
+      <c r="DQ5"/>
+      <c r="DR5"/>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
+      <c r="EA5"/>
+      <c r="EB5"/>
+      <c r="EC5"/>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
+      <c r="EG5"/>
+      <c r="EH5"/>
+      <c r="EI5"/>
+      <c r="EJ5"/>
+      <c r="EK5"/>
+      <c r="EL5"/>
+      <c r="EM5"/>
+      <c r="EN5"/>
+      <c r="EO5"/>
+      <c r="EP5"/>
+      <c r="EQ5"/>
+      <c r="ER5"/>
+      <c r="ES5"/>
+      <c r="ET5"/>
+      <c r="EU5"/>
+      <c r="EV5"/>
+      <c r="EW5"/>
+      <c r="EX5"/>
+      <c r="EY5"/>
+      <c r="EZ5"/>
+      <c r="FA5"/>
+      <c r="FB5"/>
+      <c r="FC5"/>
+      <c r="FD5"/>
+      <c r="FE5"/>
+      <c r="FF5"/>
+      <c r="FG5"/>
+      <c r="FH5"/>
+      <c r="FI5"/>
+      <c r="FJ5"/>
+      <c r="FK5"/>
+      <c r="FL5"/>
+      <c r="FM5"/>
+      <c r="FN5"/>
+      <c r="FO5"/>
+      <c r="FP5"/>
+      <c r="FQ5"/>
+      <c r="FR5"/>
+      <c r="FS5"/>
+      <c r="FT5"/>
+      <c r="FU5"/>
+      <c r="FV5"/>
+      <c r="FW5"/>
+      <c r="FX5"/>
+      <c r="FY5"/>
+      <c r="FZ5"/>
+      <c r="GA5"/>
     </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+      <c r="DP6"/>
+      <c r="DQ6"/>
+      <c r="DR6"/>
+      <c r="DS6"/>
+      <c r="DT6"/>
+      <c r="DU6"/>
+      <c r="DV6"/>
+      <c r="DW6"/>
+      <c r="DX6"/>
+      <c r="DY6"/>
+      <c r="DZ6"/>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
+      <c r="ED6"/>
+      <c r="EE6"/>
+      <c r="EF6"/>
+      <c r="EG6"/>
+      <c r="EH6"/>
+      <c r="EI6"/>
+      <c r="EJ6"/>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
+      <c r="EN6"/>
+      <c r="EO6"/>
+      <c r="EP6"/>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
+      <c r="EV6"/>
+      <c r="EW6"/>
+      <c r="EX6"/>
+      <c r="EY6"/>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
+      <c r="FC6"/>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
+      <c r="FG6"/>
+      <c r="FH6"/>
+      <c r="FI6"/>
+      <c r="FJ6"/>
+      <c r="FK6"/>
+      <c r="FL6"/>
+      <c r="FM6"/>
+      <c r="FN6"/>
+      <c r="FO6"/>
+      <c r="FP6"/>
+      <c r="FQ6"/>
+      <c r="FR6"/>
+      <c r="FS6"/>
+      <c r="FT6"/>
+      <c r="FU6"/>
+      <c r="FV6"/>
+      <c r="FW6"/>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
+      <c r="BK7"/>
+      <c r="BL7"/>
+      <c r="BM7"/>
+      <c r="BN7"/>
+      <c r="BO7"/>
+      <c r="BP7"/>
+      <c r="BQ7"/>
+      <c r="BR7"/>
+      <c r="BS7"/>
+      <c r="BT7"/>
+      <c r="BU7"/>
+      <c r="BV7"/>
+      <c r="BW7"/>
+      <c r="BX7"/>
+      <c r="BY7"/>
+      <c r="BZ7"/>
+      <c r="CA7"/>
+      <c r="CB7"/>
+      <c r="CC7"/>
+      <c r="CD7"/>
+      <c r="CE7"/>
+      <c r="CF7"/>
+      <c r="CG7"/>
+      <c r="CH7"/>
+      <c r="CI7"/>
+      <c r="CJ7"/>
+      <c r="CK7"/>
+      <c r="CL7"/>
+      <c r="CM7"/>
+      <c r="CN7"/>
+      <c r="CO7"/>
+      <c r="CP7"/>
+      <c r="CQ7"/>
+      <c r="CR7"/>
+      <c r="CS7"/>
+      <c r="CT7"/>
+      <c r="CU7"/>
+      <c r="CV7"/>
+      <c r="CW7"/>
+      <c r="CX7"/>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
+      <c r="EK7"/>
+      <c r="EL7"/>
+      <c r="EM7"/>
+      <c r="EN7"/>
+      <c r="EO7"/>
+      <c r="EP7"/>
+      <c r="EQ7"/>
+      <c r="ER7"/>
+      <c r="ES7"/>
+      <c r="ET7"/>
+      <c r="EU7"/>
+      <c r="EV7"/>
+      <c r="EW7"/>
+      <c r="EX7"/>
+      <c r="EY7"/>
+      <c r="EZ7"/>
+      <c r="FA7"/>
+      <c r="FB7"/>
+      <c r="FC7"/>
+      <c r="FD7"/>
+      <c r="FE7"/>
+      <c r="FF7"/>
+      <c r="FG7"/>
+      <c r="FH7"/>
+      <c r="FI7"/>
+      <c r="FJ7"/>
+      <c r="FK7"/>
+      <c r="FL7"/>
+      <c r="FM7"/>
+      <c r="FN7"/>
+      <c r="FO7"/>
+      <c r="FP7"/>
+      <c r="FQ7"/>
+      <c r="FR7"/>
+      <c r="FS7"/>
+      <c r="FT7"/>
+      <c r="FU7"/>
+      <c r="FV7"/>
+      <c r="FW7"/>
+      <c r="FX7"/>
+      <c r="FY7"/>
+      <c r="FZ7"/>
+      <c r="GA7"/>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -717,311 +1616,2101 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8"/>
+      <c r="GA8"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:183" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+      <c r="DP9"/>
+      <c r="DQ9"/>
+      <c r="DR9"/>
+      <c r="DS9"/>
+      <c r="DT9"/>
+      <c r="DU9"/>
+      <c r="DV9"/>
+      <c r="DW9"/>
+      <c r="DX9"/>
+      <c r="DY9"/>
+      <c r="DZ9"/>
+      <c r="EA9"/>
+      <c r="EB9"/>
+      <c r="EC9"/>
+      <c r="ED9"/>
+      <c r="EE9"/>
+      <c r="EF9"/>
+      <c r="EG9"/>
+      <c r="EH9"/>
+      <c r="EI9"/>
+      <c r="EJ9"/>
+      <c r="EK9"/>
+      <c r="EL9"/>
+      <c r="EM9"/>
+      <c r="EN9"/>
+      <c r="EO9"/>
+      <c r="EP9"/>
+      <c r="EQ9"/>
+      <c r="ER9"/>
+      <c r="ES9"/>
+      <c r="ET9"/>
+      <c r="EU9"/>
+      <c r="EV9"/>
+      <c r="EW9"/>
+      <c r="EX9"/>
+      <c r="EY9"/>
+      <c r="EZ9"/>
+      <c r="FA9"/>
+      <c r="FB9"/>
+      <c r="FC9"/>
+      <c r="FD9"/>
+      <c r="FE9"/>
+      <c r="FF9"/>
+      <c r="FG9"/>
+      <c r="FH9"/>
+      <c r="FI9"/>
+      <c r="FJ9"/>
+      <c r="FK9"/>
+      <c r="FL9"/>
+      <c r="FM9"/>
+      <c r="FN9"/>
+      <c r="FO9"/>
+      <c r="FP9"/>
+      <c r="FQ9"/>
+      <c r="FR9"/>
+      <c r="FS9"/>
+      <c r="FT9"/>
+      <c r="FU9"/>
+      <c r="FV9"/>
+      <c r="FW9"/>
+      <c r="FX9"/>
+      <c r="FY9"/>
+      <c r="FZ9"/>
+      <c r="GA9"/>
+    </row>
+    <row r="10" spans="1:183" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+      <c r="BS10"/>
+      <c r="BT10"/>
+      <c r="BU10"/>
+      <c r="BV10"/>
+      <c r="BW10"/>
+      <c r="BX10"/>
+      <c r="BY10"/>
+      <c r="BZ10"/>
+      <c r="CA10"/>
+      <c r="CB10"/>
+      <c r="CC10"/>
+      <c r="CD10"/>
+      <c r="CE10"/>
+      <c r="CF10"/>
+      <c r="CG10"/>
+      <c r="CH10"/>
+      <c r="CI10"/>
+      <c r="CJ10"/>
+      <c r="CK10"/>
+      <c r="CL10"/>
+      <c r="CM10"/>
+      <c r="CN10"/>
+      <c r="CO10"/>
+      <c r="CP10"/>
+      <c r="CQ10"/>
+      <c r="CR10"/>
+      <c r="CS10"/>
+      <c r="CT10"/>
+      <c r="CU10"/>
+      <c r="CV10"/>
+      <c r="CW10"/>
+      <c r="CX10"/>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+      <c r="DP10"/>
+      <c r="DQ10"/>
+      <c r="DR10"/>
+      <c r="DS10"/>
+      <c r="DT10"/>
+      <c r="DU10"/>
+      <c r="DV10"/>
+      <c r="DW10"/>
+      <c r="DX10"/>
+      <c r="DY10"/>
+      <c r="DZ10"/>
+      <c r="EA10"/>
+      <c r="EB10"/>
+      <c r="EC10"/>
+      <c r="ED10"/>
+      <c r="EE10"/>
+      <c r="EF10"/>
+      <c r="EG10"/>
+      <c r="EH10"/>
+      <c r="EI10"/>
+      <c r="EJ10"/>
+      <c r="EK10"/>
+      <c r="EL10"/>
+      <c r="EM10"/>
+      <c r="EN10"/>
+      <c r="EO10"/>
+      <c r="EP10"/>
+      <c r="EQ10"/>
+      <c r="ER10"/>
+      <c r="ES10"/>
+      <c r="ET10"/>
+      <c r="EU10"/>
+      <c r="EV10"/>
+      <c r="EW10"/>
+      <c r="EX10"/>
+      <c r="EY10"/>
+      <c r="EZ10"/>
+      <c r="FA10"/>
+      <c r="FB10"/>
+      <c r="FC10"/>
+      <c r="FD10"/>
+      <c r="FE10"/>
+      <c r="FF10"/>
+      <c r="FG10"/>
+      <c r="FH10"/>
+      <c r="FI10"/>
+      <c r="FJ10"/>
+      <c r="FK10"/>
+      <c r="FL10"/>
+      <c r="FM10"/>
+      <c r="FN10"/>
+      <c r="FO10"/>
+      <c r="FP10"/>
+      <c r="FQ10"/>
+      <c r="FR10"/>
+      <c r="FS10"/>
+      <c r="FT10"/>
+      <c r="FU10"/>
+      <c r="FV10"/>
+      <c r="FW10"/>
+      <c r="FX10"/>
+      <c r="FY10"/>
+      <c r="FZ10"/>
+      <c r="GA10"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:183" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+      <c r="DP11"/>
+      <c r="DQ11"/>
+      <c r="DR11"/>
+      <c r="DS11"/>
+      <c r="DT11"/>
+      <c r="DU11"/>
+      <c r="DV11"/>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
+      <c r="EA11"/>
+      <c r="EB11"/>
+      <c r="EC11"/>
+      <c r="ED11"/>
+      <c r="EE11"/>
+      <c r="EF11"/>
+      <c r="EG11"/>
+      <c r="EH11"/>
+      <c r="EI11"/>
+      <c r="EJ11"/>
+      <c r="EK11"/>
+      <c r="EL11"/>
+      <c r="EM11"/>
+      <c r="EN11"/>
+      <c r="EO11"/>
+      <c r="EP11"/>
+      <c r="EQ11"/>
+      <c r="ER11"/>
+      <c r="ES11"/>
+      <c r="ET11"/>
+      <c r="EU11"/>
+      <c r="EV11"/>
+      <c r="EW11"/>
+      <c r="EX11"/>
+      <c r="EY11"/>
+      <c r="EZ11"/>
+      <c r="FA11"/>
+      <c r="FB11"/>
+      <c r="FC11"/>
+      <c r="FD11"/>
+      <c r="FE11"/>
+      <c r="FF11"/>
+      <c r="FG11"/>
+      <c r="FH11"/>
+      <c r="FI11"/>
+      <c r="FJ11"/>
+      <c r="FK11"/>
+      <c r="FL11"/>
+      <c r="FM11"/>
+      <c r="FN11"/>
+      <c r="FO11"/>
+      <c r="FP11"/>
+      <c r="FQ11"/>
+      <c r="FR11"/>
+      <c r="FS11"/>
+      <c r="FT11"/>
+      <c r="FU11"/>
+      <c r="FV11"/>
+      <c r="FW11"/>
+      <c r="FX11"/>
+      <c r="FY11"/>
+      <c r="FZ11"/>
+      <c r="GA11"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:183" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:183" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
+      <c r="FT13"/>
+      <c r="FU13"/>
+      <c r="FV13"/>
+      <c r="FW13"/>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+      <c r="BS14"/>
+      <c r="BT14"/>
+      <c r="BU14"/>
+      <c r="BV14"/>
+      <c r="BW14"/>
+      <c r="BX14"/>
+      <c r="BY14"/>
+      <c r="BZ14"/>
+      <c r="CA14"/>
+      <c r="CB14"/>
+      <c r="CC14"/>
+      <c r="CD14"/>
+      <c r="CE14"/>
+      <c r="CF14"/>
+      <c r="CG14"/>
+      <c r="CH14"/>
+      <c r="CI14"/>
+      <c r="CJ14"/>
+      <c r="CK14"/>
+      <c r="CL14"/>
+      <c r="CM14"/>
+      <c r="CN14"/>
+      <c r="CO14"/>
+      <c r="CP14"/>
+      <c r="CQ14"/>
+      <c r="CR14"/>
+      <c r="CS14"/>
+      <c r="CT14"/>
+      <c r="CU14"/>
+      <c r="CV14"/>
+      <c r="CW14"/>
+      <c r="CX14"/>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+      <c r="DP14"/>
+      <c r="DQ14"/>
+      <c r="DR14"/>
+      <c r="DS14"/>
+      <c r="DT14"/>
+      <c r="DU14"/>
+      <c r="DV14"/>
+      <c r="DW14"/>
+      <c r="DX14"/>
+      <c r="DY14"/>
+      <c r="DZ14"/>
+      <c r="EA14"/>
+      <c r="EB14"/>
+      <c r="EC14"/>
+      <c r="ED14"/>
+      <c r="EE14"/>
+      <c r="EF14"/>
+      <c r="EG14"/>
+      <c r="EH14"/>
+      <c r="EI14"/>
+      <c r="EJ14"/>
+      <c r="EK14"/>
+      <c r="EL14"/>
+      <c r="EM14"/>
+      <c r="EN14"/>
+      <c r="EO14"/>
+      <c r="EP14"/>
+      <c r="EQ14"/>
+      <c r="ER14"/>
+      <c r="ES14"/>
+      <c r="ET14"/>
+      <c r="EU14"/>
+      <c r="EV14"/>
+      <c r="EW14"/>
+      <c r="EX14"/>
+      <c r="EY14"/>
+      <c r="EZ14"/>
+      <c r="FA14"/>
+      <c r="FB14"/>
+      <c r="FC14"/>
+      <c r="FD14"/>
+      <c r="FE14"/>
+      <c r="FF14"/>
+      <c r="FG14"/>
+      <c r="FH14"/>
+      <c r="FI14"/>
+      <c r="FJ14"/>
+      <c r="FK14"/>
+      <c r="FL14"/>
+      <c r="FM14"/>
+      <c r="FN14"/>
+      <c r="FO14"/>
+      <c r="FP14"/>
+      <c r="FQ14"/>
+      <c r="FR14"/>
+      <c r="FS14"/>
+      <c r="FT14"/>
+      <c r="FU14"/>
+      <c r="FV14"/>
+      <c r="FW14"/>
+      <c r="FX14"/>
+      <c r="FY14"/>
+      <c r="FZ14"/>
+      <c r="GA14"/>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
+      <c r="BH15"/>
+      <c r="BI15"/>
+      <c r="BJ15"/>
+      <c r="BK15"/>
+      <c r="BL15"/>
+      <c r="BM15"/>
+      <c r="BN15"/>
+      <c r="BO15"/>
+      <c r="BP15"/>
+      <c r="BQ15"/>
+      <c r="BR15"/>
+      <c r="BS15"/>
+      <c r="BT15"/>
+      <c r="BU15"/>
+      <c r="BV15"/>
+      <c r="BW15"/>
+      <c r="BX15"/>
+      <c r="BY15"/>
+      <c r="BZ15"/>
+      <c r="CA15"/>
+      <c r="CB15"/>
+      <c r="CC15"/>
+      <c r="CD15"/>
+      <c r="CE15"/>
+      <c r="CF15"/>
+      <c r="CG15"/>
+      <c r="CH15"/>
+      <c r="CI15"/>
+      <c r="CJ15"/>
+      <c r="CK15"/>
+      <c r="CL15"/>
+      <c r="CM15"/>
+      <c r="CN15"/>
+      <c r="CO15"/>
+      <c r="CP15"/>
+      <c r="CQ15"/>
+      <c r="CR15"/>
+      <c r="CS15"/>
+      <c r="CT15"/>
+      <c r="CU15"/>
+      <c r="CV15"/>
+      <c r="CW15"/>
+      <c r="CX15"/>
+      <c r="CY15"/>
+      <c r="CZ15"/>
+      <c r="DA15"/>
+      <c r="DB15"/>
+      <c r="DC15"/>
+      <c r="DD15"/>
+      <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15"/>
+      <c r="DH15"/>
+      <c r="DI15"/>
+      <c r="DJ15"/>
+      <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+      <c r="DP15"/>
+      <c r="DQ15"/>
+      <c r="DR15"/>
+      <c r="DS15"/>
+      <c r="DT15"/>
+      <c r="DU15"/>
+      <c r="DV15"/>
+      <c r="DW15"/>
+      <c r="DX15"/>
+      <c r="DY15"/>
+      <c r="DZ15"/>
+      <c r="EA15"/>
+      <c r="EB15"/>
+      <c r="EC15"/>
+      <c r="ED15"/>
+      <c r="EE15"/>
+      <c r="EF15"/>
+      <c r="EG15"/>
+      <c r="EH15"/>
+      <c r="EI15"/>
+      <c r="EJ15"/>
+      <c r="EK15"/>
+      <c r="EL15"/>
+      <c r="EM15"/>
+      <c r="EN15"/>
+      <c r="EO15"/>
+      <c r="EP15"/>
+      <c r="EQ15"/>
+      <c r="ER15"/>
+      <c r="ES15"/>
+      <c r="ET15"/>
+      <c r="EU15"/>
+      <c r="EV15"/>
+      <c r="EW15"/>
+      <c r="EX15"/>
+      <c r="EY15"/>
+      <c r="EZ15"/>
+      <c r="FA15"/>
+      <c r="FB15"/>
+      <c r="FC15"/>
+      <c r="FD15"/>
+      <c r="FE15"/>
+      <c r="FF15"/>
+      <c r="FG15"/>
+      <c r="FH15"/>
+      <c r="FI15"/>
+      <c r="FJ15"/>
+      <c r="FK15"/>
+      <c r="FL15"/>
+      <c r="FM15"/>
+      <c r="FN15"/>
+      <c r="FO15"/>
+      <c r="FP15"/>
+      <c r="FQ15"/>
+      <c r="FR15"/>
+      <c r="FS15"/>
+      <c r="FT15"/>
+      <c r="FU15"/>
+      <c r="FV15"/>
+      <c r="FW15"/>
+      <c r="FX15"/>
+      <c r="FY15"/>
+      <c r="FZ15"/>
+      <c r="GA15"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+      <c r="ED16"/>
+      <c r="EE16"/>
+      <c r="EF16"/>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16"/>
+      <c r="EJ16"/>
+      <c r="EK16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="EQ16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="ET16"/>
+      <c r="EU16"/>
+      <c r="EV16"/>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16"/>
+      <c r="EZ16"/>
+      <c r="FA16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
+      <c r="FF16"/>
+      <c r="FG16"/>
+      <c r="FH16"/>
+      <c r="FI16"/>
+      <c r="FJ16"/>
+      <c r="FK16"/>
+      <c r="FL16"/>
+      <c r="FM16"/>
+      <c r="FN16"/>
+      <c r="FO16"/>
+      <c r="FP16"/>
+      <c r="FQ16"/>
+      <c r="FR16"/>
+      <c r="FS16"/>
+      <c r="FT16"/>
+      <c r="FU16"/>
+      <c r="FV16"/>
+      <c r="FW16"/>
+      <c r="FX16"/>
+      <c r="FY16"/>
+      <c r="FZ16"/>
+      <c r="GA16"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:183" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+      <c r="CA17"/>
+      <c r="CB17"/>
+      <c r="CC17"/>
+      <c r="CD17"/>
+      <c r="CE17"/>
+      <c r="CF17"/>
+      <c r="CG17"/>
+      <c r="CH17"/>
+      <c r="CI17"/>
+      <c r="CJ17"/>
+      <c r="CK17"/>
+      <c r="CL17"/>
+      <c r="CM17"/>
+      <c r="CN17"/>
+      <c r="CO17"/>
+      <c r="CP17"/>
+      <c r="CQ17"/>
+      <c r="CR17"/>
+      <c r="CS17"/>
+      <c r="CT17"/>
+      <c r="CU17"/>
+      <c r="CV17"/>
+      <c r="CW17"/>
+      <c r="CX17"/>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+      <c r="DP17"/>
+      <c r="DQ17"/>
+      <c r="DR17"/>
+      <c r="DS17"/>
+      <c r="DT17"/>
+      <c r="DU17"/>
+      <c r="DV17"/>
+      <c r="DW17"/>
+      <c r="DX17"/>
+      <c r="DY17"/>
+      <c r="DZ17"/>
+      <c r="EA17"/>
+      <c r="EB17"/>
+      <c r="EC17"/>
+      <c r="ED17"/>
+      <c r="EE17"/>
+      <c r="EF17"/>
+      <c r="EG17"/>
+      <c r="EH17"/>
+      <c r="EI17"/>
+      <c r="EJ17"/>
+      <c r="EK17"/>
+      <c r="EL17"/>
+      <c r="EM17"/>
+      <c r="EN17"/>
+      <c r="EO17"/>
+      <c r="EP17"/>
+      <c r="EQ17"/>
+      <c r="ER17"/>
+      <c r="ES17"/>
+      <c r="ET17"/>
+      <c r="EU17"/>
+      <c r="EV17"/>
+      <c r="EW17"/>
+      <c r="EX17"/>
+      <c r="EY17"/>
+      <c r="EZ17"/>
+      <c r="FA17"/>
+      <c r="FB17"/>
+      <c r="FC17"/>
+      <c r="FD17"/>
+      <c r="FE17"/>
+      <c r="FF17"/>
+      <c r="FG17"/>
+      <c r="FH17"/>
+      <c r="FI17"/>
+      <c r="FJ17"/>
+      <c r="FK17"/>
+      <c r="FL17"/>
+      <c r="FM17"/>
+      <c r="FN17"/>
+      <c r="FO17"/>
+      <c r="FP17"/>
+      <c r="FQ17"/>
+      <c r="FR17"/>
+      <c r="FS17"/>
+      <c r="FT17"/>
+      <c r="FU17"/>
+      <c r="FV17"/>
+      <c r="FW17"/>
+      <c r="FX17"/>
+      <c r="FY17"/>
+      <c r="FZ17"/>
+      <c r="GA17"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:183" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
+      <c r="BH18"/>
+      <c r="BI18"/>
+      <c r="BJ18"/>
+      <c r="BK18"/>
+      <c r="BL18"/>
+      <c r="BM18"/>
+      <c r="BN18"/>
+      <c r="BO18"/>
+      <c r="BP18"/>
+      <c r="BQ18"/>
+      <c r="BR18"/>
+      <c r="BS18"/>
+      <c r="BT18"/>
+      <c r="BU18"/>
+      <c r="BV18"/>
+      <c r="BW18"/>
+      <c r="BX18"/>
+      <c r="BY18"/>
+      <c r="BZ18"/>
+      <c r="CA18"/>
+      <c r="CB18"/>
+      <c r="CC18"/>
+      <c r="CD18"/>
+      <c r="CE18"/>
+      <c r="CF18"/>
+      <c r="CG18"/>
+      <c r="CH18"/>
+      <c r="CI18"/>
+      <c r="CJ18"/>
+      <c r="CK18"/>
+      <c r="CL18"/>
+      <c r="CM18"/>
+      <c r="CN18"/>
+      <c r="CO18"/>
+      <c r="CP18"/>
+      <c r="CQ18"/>
+      <c r="CR18"/>
+      <c r="CS18"/>
+      <c r="CT18"/>
+      <c r="CU18"/>
+      <c r="CV18"/>
+      <c r="CW18"/>
+      <c r="CX18"/>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+      <c r="DP18"/>
+      <c r="DQ18"/>
+      <c r="DR18"/>
+      <c r="DS18"/>
+      <c r="DT18"/>
+      <c r="DU18"/>
+      <c r="DV18"/>
+      <c r="DW18"/>
+      <c r="DX18"/>
+      <c r="DY18"/>
+      <c r="DZ18"/>
+      <c r="EA18"/>
+      <c r="EB18"/>
+      <c r="EC18"/>
+      <c r="ED18"/>
+      <c r="EE18"/>
+      <c r="EF18"/>
+      <c r="EG18"/>
+      <c r="EH18"/>
+      <c r="EI18"/>
+      <c r="EJ18"/>
+      <c r="EK18"/>
+      <c r="EL18"/>
+      <c r="EM18"/>
+      <c r="EN18"/>
+      <c r="EO18"/>
+      <c r="EP18"/>
+      <c r="EQ18"/>
+      <c r="ER18"/>
+      <c r="ES18"/>
+      <c r="ET18"/>
+      <c r="EU18"/>
+      <c r="EV18"/>
+      <c r="EW18"/>
+      <c r="EX18"/>
+      <c r="EY18"/>
+      <c r="EZ18"/>
+      <c r="FA18"/>
+      <c r="FB18"/>
+      <c r="FC18"/>
+      <c r="FD18"/>
+      <c r="FE18"/>
+      <c r="FF18"/>
+      <c r="FG18"/>
+      <c r="FH18"/>
+      <c r="FI18"/>
+      <c r="FJ18"/>
+      <c r="FK18"/>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
+      <c r="FO18"/>
+      <c r="FP18"/>
+      <c r="FQ18"/>
+      <c r="FR18"/>
+      <c r="FS18"/>
+      <c r="FT18"/>
+      <c r="FU18"/>
+      <c r="FV18"/>
+      <c r="FW18"/>
+      <c r="FX18"/>
+      <c r="FY18"/>
+      <c r="FZ18"/>
+      <c r="GA18"/>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="21" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f>SUM(B2:B18)</f>
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:K19" si="1">SUM(C2:C18)</f>
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>20</v>
+    <row r="26" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:183" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
